--- a/www.eia.gov/electricity/monthly/xls/table_a_1_acontinued.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_1_acontinued.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.1.A. Relative Standard Error (Percent) for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Total (All Sectors) by Census Division and State, October 2016 (Continued)</t>
+    <t>Total (All Sectors) by Census Division and State, November 2016 (Continued)</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
         <v>7</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>5</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I6" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" s="8">
         <v>7</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1346,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F9" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="8">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F10" s="8">
         <v>13</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
@@ -1459,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="8">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8">
+        <v>7</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
         <v>8</v>
-      </c>
-      <c r="F12" s="8">
-        <v>6</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>4</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F14" s="8">
         <v>2</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
@@ -1558,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I16" s="8">
         <v>0.27</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" s="8">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F18" s="8">
         <v>3</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I18" s="8">
         <v>1</v>
@@ -1662,16 +1662,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F19" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I19" s="8">
         <v>1</v>
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="8">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="F20" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
       </c>
       <c r="H20" s="8">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I20" s="8">
         <v>1</v>
@@ -1720,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" s="6">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
       </c>
       <c r="H22" s="8">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -1778,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="8">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F23" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F24" s="8">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="8">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F25" s="8">
         <v>3</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F26" s="8">
         <v>1</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="8">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="6">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F30" s="8">
         <v>28</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="8">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F34" s="8">
         <v>3</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" s="8">
         <v>4</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="8">
-        <v>1</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="F36" s="8">
         <v>6</v>
@@ -2164,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I36" s="8">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="8">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="F37" s="8">
         <v>3</v>
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="8">
-        <v>1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="8">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="G38" s="8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="8">
-        <v>1</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2242,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>
       </c>
       <c r="H39" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I39" s="6">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="8">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="8">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="I42" s="8">
         <v>1</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F43" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43" s="8">
         <v>0</v>
@@ -2387,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F44" s="6">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="6">
-        <v>0.24</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F45" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" s="8">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I46" s="8">
         <v>1</v>
@@ -2477,13 +2477,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="G47" s="8">
         <v>0</v>
       </c>
       <c r="H47" s="8">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I47" s="8">
         <v>1</v>
@@ -2503,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="E48" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F48" s="8">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="G48" s="8">
         <v>0</v>
       </c>
       <c r="H48" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I48" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I49" s="6">
-        <v>0.46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2590,16 +2590,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="8">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
       </c>
       <c r="H51" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I51" s="8">
         <v>1</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D52" s="8">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>0</v>
       </c>
       <c r="F52" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52" s="8">
         <v>0</v>
       </c>
       <c r="H52" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I52" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" s="8">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
@@ -2700,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="8">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D55" s="8">
         <v>0</v>
       </c>
       <c r="E55" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" s="8">
         <v>2</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="8">
-        <v>0</v>
+        <v>2158</v>
       </c>
       <c r="I55" s="8">
         <v>1</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="8">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" s="8">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="I56" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="8">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F60" s="8">
         <v>2</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="8">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I60" s="8">
         <v>1</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="8">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I61" s="8">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F62" s="6">
         <v>5</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G63" s="8">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F64" s="8">
         <v>4</v>
@@ -3008,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="6">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
